--- a/excel/Temperature_logging.xlsx
+++ b/excel/Temperature_logging.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="247">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -761,9 +761,6 @@
   </si>
   <si>
     <t xml:space="preserve">05:17:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:17:19</t>
   </si>
 </sst>
 </file>
@@ -866,11 +863,11 @@
   </sheetPr>
   <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A238" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A246" activeCellId="0" sqref="A246"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A245" activeCellId="0" sqref="A245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.43"/>
   </cols>
@@ -3560,15 +3557,8 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C245" s="1" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/excel/Temperature_logging.xlsx
+++ b/excel/Temperature_logging.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A245" activeCellId="0" sqref="A245"/>
@@ -4155,18 +4155,393 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="A248" s="2" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>03:05:19</t>
         </is>
       </c>
-      <c r="C248" t="n">
+      <c r="C248" s="2" t="n">
         <v>32</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>03:14:34</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>03:14:40</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>03:14:45</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>03:14:51</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="inlineStr">
+        <is>
+          <t>03:14:56</t>
+        </is>
+      </c>
+      <c r="C253" s="2" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>03:16:36</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>03:16:38</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>03:16:39</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="n">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>03:16:40</t>
+        </is>
+      </c>
+      <c r="C257" s="2" t="n">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>03:16:42</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="n">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t>03:17:40</t>
+        </is>
+      </c>
+      <c r="C259" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>03:17:41</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
+        <is>
+          <t>03:17:42</t>
+        </is>
+      </c>
+      <c r="C261" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>03:17:44</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>03:17:45</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>03:17:46</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>03:17:48</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>03:17:49</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>03:17:50</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>03:19:10</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>03:19:11</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>03:19:12</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>03:19:14</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>03:19:15</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>03:19:16</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>29.6</v>
       </c>
     </row>
   </sheetData>
